--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H2">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I2">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J2">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>0.1358622677906667</v>
+        <v>0.4335321419477777</v>
       </c>
       <c r="R2">
-        <v>1.222760410116</v>
+        <v>3.901789277529999</v>
       </c>
       <c r="S2">
-        <v>0.03258422204521195</v>
+        <v>0.07604689871984613</v>
       </c>
       <c r="T2">
-        <v>0.03258422204521195</v>
+        <v>0.07604689871984613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H3">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I3">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J3">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>1.333373603029333</v>
+        <v>3.769144954332667</v>
       </c>
       <c r="R3">
-        <v>12.000362427264</v>
+        <v>33.922304588994</v>
       </c>
       <c r="S3">
-        <v>0.3197866652518571</v>
+        <v>0.661154633921197</v>
       </c>
       <c r="T3">
-        <v>0.319786665251857</v>
+        <v>0.6611546339211971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.319914</v>
+        <v>2.396551333333333</v>
       </c>
       <c r="H4">
-        <v>3.959742</v>
+        <v>7.189654</v>
       </c>
       <c r="I4">
-        <v>0.430067032920844</v>
+        <v>0.7965668642594712</v>
       </c>
       <c r="J4">
-        <v>0.4300670329208439</v>
+        <v>0.7965668642594713</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>0.32395969216</v>
+        <v>0.3384329907888889</v>
       </c>
       <c r="R4">
-        <v>2.91563722944</v>
+        <v>3.0458969171</v>
       </c>
       <c r="S4">
-        <v>0.07769614562377497</v>
+        <v>0.05936533161842807</v>
       </c>
       <c r="T4">
-        <v>0.07769614562377494</v>
+        <v>0.05936533161842807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H5">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I5">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J5">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>0.02741625301022222</v>
+        <v>0.01349483476833333</v>
       </c>
       <c r="R5">
-        <v>0.246746277092</v>
+        <v>0.121453512915</v>
       </c>
       <c r="S5">
-        <v>0.006575315503412795</v>
+        <v>0.002367160894363679</v>
       </c>
       <c r="T5">
-        <v>0.006575315503412795</v>
+        <v>0.002367160894363679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H6">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I6">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J6">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>0.2690674066631111</v>
+        <v>0.117324607463</v>
       </c>
       <c r="R6">
-        <v>2.421606659968</v>
+        <v>1.055921467167</v>
       </c>
       <c r="S6">
-        <v>0.06453117754039465</v>
+        <v>0.02058018697529285</v>
       </c>
       <c r="T6">
-        <v>0.06453117754039464</v>
+        <v>0.02058018697529285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2663513333333333</v>
+        <v>0.074599</v>
       </c>
       <c r="H7">
-        <v>0.7990539999999999</v>
+        <v>0.223797</v>
       </c>
       <c r="I7">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="J7">
-        <v>0.08678514482093329</v>
+        <v>0.02479525085917582</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>0.06537327125333332</v>
+        <v>0.01053462211666667</v>
       </c>
       <c r="R7">
-        <v>0.58835944128</v>
+        <v>0.09481159905</v>
       </c>
       <c r="S7">
-        <v>0.01567865177712585</v>
+        <v>0.001847902989519293</v>
       </c>
       <c r="T7">
-        <v>0.01567865177712585</v>
+        <v>0.001847902989519293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H8">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I8">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J8">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N8">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q8">
-        <v>0.1526309942064444</v>
+        <v>0.09722380924999997</v>
       </c>
       <c r="R8">
-        <v>1.373678947858</v>
+        <v>0.8750142832499999</v>
       </c>
       <c r="S8">
-        <v>0.03660591190680757</v>
+        <v>0.0170542584039432</v>
       </c>
       <c r="T8">
-        <v>0.03660591190680757</v>
+        <v>0.01705425840394321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H9">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I9">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J9">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N9">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O9">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P9">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q9">
-        <v>1.497944513870222</v>
+        <v>0.84526750065</v>
       </c>
       <c r="R9">
-        <v>13.481500624832</v>
+        <v>7.60740750585</v>
       </c>
       <c r="S9">
-        <v>0.3592561602648844</v>
+        <v>0.1482703721212233</v>
       </c>
       <c r="T9">
-        <v>0.3592561602648843</v>
+        <v>0.1482703721212233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.482823666666667</v>
+        <v>0.53745</v>
       </c>
       <c r="H10">
-        <v>4.448471</v>
+        <v>1.61235</v>
       </c>
       <c r="I10">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="J10">
-        <v>0.4831478222582227</v>
+        <v>0.1786378848813529</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N10">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O10">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P10">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q10">
-        <v>0.3639442407466666</v>
+        <v>0.0758968975</v>
       </c>
       <c r="R10">
-        <v>3.27549816672</v>
+        <v>0.6830720775</v>
       </c>
       <c r="S10">
-        <v>0.08728575008653083</v>
+        <v>0.01331325435618633</v>
       </c>
       <c r="T10">
-        <v>0.08728575008653082</v>
+        <v>0.01331325435618633</v>
       </c>
     </row>
   </sheetData>
